--- a/tarifs_salles.xlsx
+++ b/tarifs_salles.xlsx
@@ -413,7 +413,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,7 +485,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>899</v>
+        <v>800</v>
       </c>
       <c r="C5">
         <v>580</v>

--- a/tarifs_salles.xlsx
+++ b/tarifs_salles.xlsx
@@ -36,13 +36,13 @@
     <t>Salle Pierre Goursat</t>
   </si>
   <si>
-    <t>Salle Etienne d'Orves</t>
-  </si>
-  <si>
     <t>Salle Messiaen</t>
   </si>
   <si>
     <t>Salle La Bruyère</t>
+  </si>
+  <si>
+    <t>Salle d'Estienne d'Orves</t>
   </si>
 </sst>
 </file>
@@ -413,12 +413,12 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
@@ -454,7 +454,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>580</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>740</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>800</v>
